--- a/cpe656schedule.xlsx
+++ b/cpe656schedule.xlsx
@@ -450,13 +450,13 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21</c:v>
@@ -478,11 +478,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="45400832"/>
-        <c:axId val="45402368"/>
+        <c:axId val="72717056"/>
+        <c:axId val="72719360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45400832"/>
+        <c:axId val="72717056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -524,7 +524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45402368"/>
+        <c:crossAx val="72719360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -532,7 +532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45402368"/>
+        <c:axId val="72719360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42345"/>
@@ -584,7 +584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45400832"/>
+        <c:crossAx val="72717056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -774,31 +774,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,19 +838,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,11 +879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45992960"/>
-        <c:axId val="46002944"/>
+        <c:axId val="98611968"/>
+        <c:axId val="98613504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="45992960"/>
+        <c:axId val="98611968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,17 +926,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46002944"/>
+        <c:crossAx val="98613504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="46002944"/>
+        <c:axId val="98613504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -973,7 +985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45992960"/>
+        <c:crossAx val="98611968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1062,7 +1074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1219,11 +1230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46429696"/>
-        <c:axId val="46431232"/>
+        <c:axId val="39882752"/>
+        <c:axId val="39884288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="46429696"/>
+        <c:axId val="39882752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,14 +1277,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46431232"/>
+        <c:crossAx val="39884288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="46431232"/>
+        <c:axId val="39884288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1325,7 +1336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46429696"/>
+        <c:crossAx val="39882752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1414,7 +1425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1565,11 +1575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46499328"/>
-        <c:axId val="46500864"/>
+        <c:axId val="40454400"/>
+        <c:axId val="40456192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="46499328"/>
+        <c:axId val="40454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46500864"/>
+        <c:crossAx val="40456192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1621,7 +1631,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="46500864"/>
+        <c:axId val="40456192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1673,7 +1683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46499328"/>
+        <c:crossAx val="40454400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4332,7 +4342,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4428,11 +4438,11 @@
         <v>42275</v>
       </c>
       <c r="F4" s="3">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>42305</v>
+        <v>42331</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4473,11 +4483,11 @@
         <v>42282</v>
       </c>
       <c r="F6" s="3">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>42312</v>
+        <v>42331</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4537,7 +4547,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,10 +4573,10 @@
         <v>42261</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,10 +4586,10 @@
       </c>
       <c r="B3">
         <f>B2-CEILING($B$2/9,2)</f>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,10 +4599,10 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B10" si="1">B3-CEILING($B$2/9,2)</f>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,10 +4612,10 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,11 +4624,11 @@
         <v>42289</v>
       </c>
       <c r="B6">
-        <f>B5-CEILING($B$2/9,2)-2</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>24</v>
@@ -4631,7 +4641,10 @@
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,7 +4654,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,6 +4669,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -4661,7 +4680,10 @@
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/cpe656schedule.xlsx
+++ b/cpe656schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Deliverable</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Remaining Screens To Go</t>
   </si>
   <si>
-    <t>*1 additional screen this week</t>
-  </si>
-  <si>
     <t>Per Screen (est. 20 screens so 5% each screen)</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>Per Req't Design (est. 50 req'ts = 2% each)</t>
-  </si>
-  <si>
-    <t>*1 additional req't this week</t>
   </si>
   <si>
     <t>*According to master schedule, this week will be less busy and so I added two additional req'ts here</t>
@@ -108,10 +102,10 @@
     <t>Actual Screens To Go</t>
   </si>
   <si>
-    <t>Remaining Features To Go</t>
+    <t>Remaining Classes To Go</t>
   </si>
   <si>
-    <t>Actual Features To Go</t>
+    <t>Actual Classes To Go</t>
   </si>
 </sst>
 </file>
@@ -254,7 +248,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -478,11 +471,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="72717056"/>
-        <c:axId val="72719360"/>
+        <c:axId val="115911296"/>
+        <c:axId val="115913088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72717056"/>
+        <c:axId val="115911296"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -524,7 +517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72719360"/>
+        <c:crossAx val="115913088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -532,7 +525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72719360"/>
+        <c:axId val="115913088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42345"/>
@@ -584,7 +577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72717056"/>
+        <c:crossAx val="115911296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -879,11 +872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98611968"/>
-        <c:axId val="98613504"/>
+        <c:axId val="116282496"/>
+        <c:axId val="116284032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98611968"/>
+        <c:axId val="116282496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,14 +919,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98613504"/>
+        <c:crossAx val="116284032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98613504"/>
+        <c:axId val="116284032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -985,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98611968"/>
+        <c:crossAx val="116282496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1074,6 +1067,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1098,7 +1092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Remaining Features To Go</c:v>
+                  <c:v>Remaining Classes To Go</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1192,7 +1186,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual Features To Go</c:v>
+                  <c:v>Actual Classes To Go</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,6 +1209,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1230,11 +1242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39882752"/>
-        <c:axId val="39884288"/>
+        <c:axId val="116342144"/>
+        <c:axId val="116368512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="39882752"/>
+        <c:axId val="116342144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,14 +1289,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39884288"/>
+        <c:crossAx val="116368512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="39884288"/>
+        <c:axId val="116368512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1336,7 +1348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39882752"/>
+        <c:crossAx val="116342144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1425,6 +1437,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1490,9 +1503,6 @@
                 <c:pt idx="5">
                   <c:v>42345</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>42352</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1503,24 +1513,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1560,6 +1567,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1575,11 +1594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40454400"/>
-        <c:axId val="40456192"/>
+        <c:axId val="116729728"/>
+        <c:axId val="116731264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40454400"/>
+        <c:axId val="116729728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40456192"/>
+        <c:crossAx val="116731264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1631,10 +1650,10 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40456192"/>
+        <c:axId val="116731264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1683,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40454400"/>
+        <c:crossAx val="116729728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4331,7 +4350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4408,7 +4427,7 @@
         <v>0.3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4">
         <v>42261</v>
@@ -4453,7 +4472,7 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4">
         <v>42296</v>
@@ -4501,7 +4520,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4">
         <v>42261</v>
@@ -4522,7 +4541,7 @@
         <v>0.2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4">
         <v>42310</v>
@@ -4546,7 +4565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4564,7 +4583,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4631,7 +4650,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4712,10 +4731,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,6 +4745,9 @@
       <c r="B2">
         <v>50</v>
       </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -4736,6 +4758,9 @@
         <f>CEILING(B2-$B$2/7,1)</f>
         <v>43</v>
       </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -4746,6 +4771,9 @@
         <f t="shared" ref="B4:B9" si="1">CEILING(B3-$B$2/7,1)</f>
         <v>36</v>
       </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -4756,9 +4784,10 @@
         <f>CEILING(B4-$B$2/7,1)-1</f>
         <v>28</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -4769,6 +4798,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -4778,6 +4810,9 @@
       <c r="B7">
         <f t="shared" si="1"/>
         <v>14</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4811,7 +4846,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4828,7 +4863,7 @@
         <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4837,7 +4872,10 @@
         <v>42310</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,8 +4884,11 @@
         <v>42317</v>
       </c>
       <c r="B3">
-        <f>CEILING(B2-CEILING($B$2/7,1),1)</f>
-        <v>17</v>
+        <f>CEILING(B2-CEILING($B$2/5,1),1)</f>
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4856,8 +4897,11 @@
         <v>42324</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B8" si="1">CEILING(B3-CEILING($B$2/7,1),1)</f>
-        <v>14</v>
+        <f t="shared" ref="B4:B7" si="1">CEILING(B3-CEILING($B$2/5,1),1)</f>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4867,7 +4911,10 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4876,12 +4923,10 @@
         <v>42338</v>
       </c>
       <c r="B6">
-        <f>CEILING(B5-CEILING($B$2/7,1),1)-1</f>
-        <v>7</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -4889,22 +4934,13 @@
         <v>42345</v>
       </c>
       <c r="B7">
-        <f>CEILING(B6-CEILING($B$2/7,1),1)-1</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>42352</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
